--- a/data/trans_dic/P16A07-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P16A07-Provincia-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">

--- a/data/trans_dic/P16A07-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P16A07-Provincia-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -656,7 +656,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,4%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -666,17 +666,17 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,79%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,61%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,2%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -686,17 +686,17 @@
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,54%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,72%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,23%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
@@ -706,12 +706,12 @@
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,64%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,2%</t>
         </is>
       </c>
     </row>
@@ -724,7 +724,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,71</t>
+          <t>1,04; 4,56</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -734,17 +734,17 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,72</t>
+          <t>1,36; 5,39</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,58</t>
+          <t>0,61; 3,55</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,78</t>
+          <t>5,09; 11,85</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -754,17 +754,17 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,69</t>
+          <t>5,71; 12,26</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>3,19; 6,87</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,37</t>
+          <t>3,58; 7,63</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
@@ -774,12 +774,12 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>4,01; 7,98</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,22</t>
+          <t>2,26; 4,62</t>
         </is>
       </c>
     </row>
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,8%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,48%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,48%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,88%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,86%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,18%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,4%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,84%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,36%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,38%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,99%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,96%</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,41</t>
+          <t>0,22; 2,05</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,41</t>
+          <t>1,02; 4,63</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,4</t>
+          <t>0,64; 2,77</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,5</t>
+          <t>2,38; 6,21</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,38</t>
+          <t>4,06; 8,13</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,4</t>
+          <t>6,02; 11,12</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,4</t>
+          <t>4,51; 9,08</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,27</t>
+          <t>7,89; 12,37</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>2,43; 4,68</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>4,06; 7,19</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>2,86; 5,52</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>5,6; 8,61</t>
         </is>
       </c>
     </row>
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,18%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,01%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,71%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,42%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,53%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,01%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,18%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,71%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,9%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,58%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,49%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,73%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,62</t>
+          <t>0,32; 3,4</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,6</t>
+          <t>2,2; 7,2</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,57</t>
+          <t>0,0; 2,39</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,53</t>
+          <t>3,58; 8,38</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,57</t>
+          <t>2,66; 7,17</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,6</t>
+          <t>6,0; 12,78</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,58</t>
+          <t>2,25; 6,95</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>7,44; 12,48</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>1,76; 4,44</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>4,48; 8,57</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>1,43; 4,0</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,21</t>
+          <t>6,19; 9,49</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,8%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,43%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,85%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,76%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,49%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,04%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,07%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,27%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,68%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,75%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,52%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,05%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,53</t>
+          <t>0,24; 2,15</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>1,49; 3,89</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,54</t>
+          <t>0,78; 3,58</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,66</t>
+          <t>2,56; 8,28</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,5</t>
+          <t>2,7; 6,71</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>6,98; 11,56</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,53</t>
+          <t>4,75; 10,05</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,32</t>
+          <t>3,72; 7,54</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,26</t>
+          <t>1,64; 4,03</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>4,54; 7,11</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,27</t>
+          <t>3,37; 6,23</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,22</t>
+          <t>3,64; 6,91</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,43%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,95%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,55%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,27%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,41%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>15,27%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,13%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,1%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,96%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,21%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,37%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,34%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,93</t>
+          <t>2,24; 7,77</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,97</t>
+          <t>1,26; 5,89</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,9</t>
+          <t>2,86; 9,13</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,69</t>
+          <t>0,31; 3,13</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,96</t>
+          <t>7,79; 16,82</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,9</t>
+          <t>10,79; 20,55</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,86</t>
+          <t>5,86; 13,74</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,39</t>
+          <t>3,44; 7,28</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,47</t>
+          <t>5,53; 10,93</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,47</t>
+          <t>6,66; 12,14</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,44</t>
+          <t>5,09; 9,91</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,25</t>
+          <t>2,39; 4,64</t>
         </is>
       </c>
     </row>
@@ -1356,62 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,76%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,69%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,05%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,05%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,24%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,77%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,49%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,31%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,02%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,25%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,84%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,68%</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,72</t>
+          <t>0,0; 2,66</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,73</t>
+          <t>1,87; 6,73</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,74</t>
+          <t>0,3; 2,95</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,52</t>
+          <t>3,14; 7,74</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,71</t>
+          <t>1,51; 6,12</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,71</t>
+          <t>5,77; 12,36</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,73</t>
+          <t>5,37; 12,29</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,42</t>
+          <t>4,39; 8,72</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>1,08; 3,3</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>4,47; 8,63</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,37</t>
+          <t>3,19; 6,84</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,23</t>
+          <t>4,29; 7,34</t>
         </is>
       </c>
     </row>
@@ -1496,62 +1496,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,95%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,33%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,45%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,55%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,46%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,24%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,33%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,24%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,75%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,82%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,44%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,62%</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,32</t>
+          <t>1,07; 3,16</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>2,79; 6,18</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,33</t>
+          <t>0,67; 2,91</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,32</t>
+          <t>3,06; 6,34</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>5,42; 9,73</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>5,49; 9,63</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>3,76; 7,55</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>4,96; 10,66</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,16</t>
+          <t>3,7; 6,1</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>4,54; 7,45</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,16</t>
+          <t>2,57; 4,69</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>4,83; 8,08</t>
         </is>
       </c>
     </row>
@@ -1636,62 +1636,62 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,03%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,72%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,27%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,8%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,03%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,62%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,73%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,74%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,57%</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,72%</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,08%</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,78%</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1704,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,26</t>
+          <t>2,75; 5,71</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,27</t>
+          <t>1,64; 4,21</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,26</t>
+          <t>2,24; 4,65</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,25</t>
+          <t>1,06; 2,9</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,26</t>
+          <t>5,35; 9,27</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,25</t>
+          <t>5,04; 8,4</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,25</t>
+          <t>6,9; 11,18</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>6,2; 9,52</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,13</t>
+          <t>4,43; 6,91</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,13</t>
+          <t>3,62; 5,91</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,13</t>
+          <t>4,92; 7,44</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,11</t>
+          <t>3,85; 5,78</t>
         </is>
       </c>
     </row>
@@ -1776,62 +1776,62 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,14%</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,15%</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,19%</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,48%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,46%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,36%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,1%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,59%</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,33%</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,81%</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,7%</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,65%</t>
         </is>
       </c>
     </row>
@@ -1844,62 +1844,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>1,68; 2,68</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>2,52; 3,91</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>1,72; 2,77</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>2,86; 4,16</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>5,64; 7,33</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>7,41; 9,44</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>6,29; 8,08</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>6,56; 8,36</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>3,86; 4,86</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>5,21; 6,38</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>4,25; 5,28</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,02</t>
+          <t>5,12; 6,18</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P16A07-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P16A07-Provincia-trans_dic.xlsx
@@ -661,7 +661,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,75%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>1,61%</t>
+          <t>1,5%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -681,7 +681,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,48%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>4,72%</t>
+          <t>4,61%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -701,7 +701,7 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,59%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>3,2%</t>
+          <t>3,0%</t>
         </is>
       </c>
     </row>
@@ -729,7 +729,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,03; 6,65</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,61; 3,55</t>
+          <t>0,57; 3,4</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -749,7 +749,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,65; 11,05</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>3,19; 6,87</t>
+          <t>3,1; 6,74</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -769,7 +769,7 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,83; 7,81</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>2,26; 4,62</t>
+          <t>2,1; 4,36</t>
         </is>
       </c>
     </row>
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>3,88%</t>
+          <t>3,72%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>9,84%</t>
+          <t>9,81%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>6,96%</t>
+          <t>6,76%</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2,38; 6,21</t>
+          <t>2,27; 6,04</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>7,89; 12,37</t>
+          <t>7,9; 12,36</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>5,6; 8,61</t>
+          <t>5,4; 8,35</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>5,42%</t>
+          <t>5,31%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>9,71%</t>
+          <t>9,66%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>7,73%</t>
+          <t>7,6%</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>3,58; 8,38</t>
+          <t>3,49; 8,22</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>7,44; 12,48</t>
+          <t>7,4; 12,42</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>6,19; 9,49</t>
+          <t>6,11; 9,37</t>
         </is>
       </c>
     </row>
@@ -1081,7 +1081,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>2,43%</t>
+          <t>1,4%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>4,76%</t>
+          <t>4,69%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1101,7 +1101,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>9,04%</t>
+          <t>10,17%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>5,27%</t>
+          <t>4,36%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1121,7 +1121,7 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>5,75%</t>
+          <t>5,87%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>5,05%</t>
+          <t>4,49%</t>
         </is>
       </c>
     </row>
@@ -1149,7 +1149,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,49; 3,89</t>
+          <t>0,54; 3,08</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>2,56; 8,28</t>
+          <t>2,5; 8,23</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1169,7 +1169,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>6,98; 11,56</t>
+          <t>7,35; 13,36</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>3,72; 7,54</t>
+          <t>2,46; 6,19</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1189,7 +1189,7 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>4,54; 7,11</t>
+          <t>4,22; 7,6</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>3,64; 6,91</t>
+          <t>3,06; 6,38</t>
         </is>
       </c>
     </row>
@@ -1231,7 +1231,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>1,27%</t>
+          <t>1,26%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1251,7 +1251,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>5,1%</t>
+          <t>5,19%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>3,34%</t>
+          <t>3,37%</t>
         </is>
       </c>
     </row>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,31; 3,13</t>
+          <t>0,3; 3,1</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1319,7 +1319,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>3,44; 7,28</t>
+          <t>3,51; 7,38</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1339,7 +1339,7 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>2,39; 4,64</t>
+          <t>2,41; 4,69</t>
         </is>
       </c>
     </row>
@@ -1371,7 +1371,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>5,05%</t>
+          <t>5,0%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1391,7 +1391,7 @@
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>6,31%</t>
+          <t>6,26%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>5,68%</t>
+          <t>5,62%</t>
         </is>
       </c>
     </row>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>3,14; 7,74</t>
+          <t>3,09; 7,73</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>4,39; 8,72</t>
+          <t>4,36; 8,66</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>4,29; 7,34</t>
+          <t>4,23; 7,23</t>
         </is>
       </c>
     </row>
@@ -1511,7 +1511,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>4,55%</t>
+          <t>4,42%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1531,7 +1531,7 @@
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>8,24%</t>
+          <t>7,16%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
@@ -1551,7 +1551,7 @@
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>6,62%</t>
+          <t>6,0%</t>
         </is>
       </c>
     </row>
@@ -1579,7 +1579,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>3,06; 6,34</t>
+          <t>2,99; 6,18</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1599,7 +1599,7 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>4,96; 10,66</t>
+          <t>3,04; 10,25</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>4,83; 8,08</t>
+          <t>3,56; 7,54</t>
         </is>
       </c>
     </row>
@@ -1651,7 +1651,7 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>1,8%</t>
+          <t>1,4%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1671,7 +1671,7 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>7,74%</t>
+          <t>7,87%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
@@ -1691,7 +1691,7 @@
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>4,78%</t>
+          <t>4,22%</t>
         </is>
       </c>
     </row>
@@ -1719,7 +1719,7 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>1,06; 2,9</t>
+          <t>0,51; 2,34</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1739,7 +1739,7 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>6,2; 9,52</t>
+          <t>6,33; 9,69</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
@@ -1759,7 +1759,7 @@
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>3,85; 5,78</t>
+          <t>2,5; 5,39</t>
         </is>
       </c>
     </row>
@@ -1791,7 +1791,7 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>3,48%</t>
+          <t>3,23%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -1811,7 +1811,7 @@
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>7,59%</t>
+          <t>7,17%</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
@@ -1831,7 +1831,7 @@
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>5,65%</t>
+          <t>5,26%</t>
         </is>
       </c>
     </row>
@@ -1859,7 +1859,7 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>2,86; 4,16</t>
+          <t>2,44; 3,91</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -1879,7 +1879,7 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>6,56; 8,36</t>
+          <t>5,75; 8,0</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
@@ -1899,7 +1899,7 @@
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>5,12; 6,18</t>
+          <t>4,55; 5,83</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P16A07-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P16A07-Provincia-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -646,7 +647,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -724,69 +725,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,04; 4,56</t>
+          <t>1,0; 4,78</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,03; 6,65</t>
+          <t>1,98; 6,72</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,36; 5,39</t>
+          <t>1,29; 5,39</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,57; 3,4</t>
+          <t>0,54; 3,44</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>5,09; 11,85</t>
+          <t>5,19; 12,09</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>4,65; 11,05</t>
+          <t>4,75; 11,78</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>5,71; 12,26</t>
+          <t>5,74; 12,29</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>3,1; 6,74</t>
+          <t>3,09; 6,53</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>3,58; 7,63</t>
+          <t>3,5; 7,31</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>3,83; 7,81</t>
+          <t>3,9; 7,86</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>4,01; 7,98</t>
+          <t>3,89; 7,94</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>2,1; 4,36</t>
+          <t>2,07; 4,28</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -864,69 +865,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,22; 2,05</t>
+          <t>0,2; 1,83</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,02; 4,63</t>
+          <t>1,22; 5,22</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,64; 2,77</t>
+          <t>0,63; 2,95</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2,27; 6,04</t>
+          <t>2,2; 6,12</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>4,06; 8,13</t>
+          <t>3,91; 8,04</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>6,02; 11,12</t>
+          <t>5,93; 10,81</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>4,51; 9,08</t>
+          <t>4,46; 8,9</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>7,9; 12,36</t>
+          <t>7,62; 12,1</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>2,43; 4,68</t>
+          <t>2,42; 4,85</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>4,06; 7,19</t>
+          <t>3,92; 7,13</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>2,86; 5,52</t>
+          <t>2,88; 5,5</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>5,4; 8,35</t>
+          <t>5,5; 8,3</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,32; 3,4</t>
+          <t>0,32; 3,37</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,2; 7,2</t>
+          <t>2,14; 6,9</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,39</t>
+          <t>0,0; 2,16</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>3,49; 8,22</t>
+          <t>3,37; 8,17</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>2,66; 7,17</t>
+          <t>2,66; 7,32</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>6,0; 12,78</t>
+          <t>6,27; 12,52</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>2,25; 6,95</t>
+          <t>2,34; 7,19</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>7,4; 12,42</t>
+          <t>7,25; 12,32</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1,76; 4,44</t>
+          <t>1,82; 4,6</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>4,48; 8,57</t>
+          <t>4,93; 9,04</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>1,43; 4,0</t>
+          <t>1,47; 3,99</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>6,11; 9,37</t>
+          <t>6,03; 9,36</t>
         </is>
       </c>
     </row>
@@ -1144,7 +1145,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,24; 2,15</t>
+          <t>0,24; 2,17</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -1154,52 +1155,52 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,78; 3,58</t>
+          <t>0,78; 3,69</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>2,5; 8,23</t>
+          <t>2,48; 8,48</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>2,7; 6,71</t>
+          <t>2,7; 6,84</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>7,35; 13,36</t>
+          <t>7,61; 13,42</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>4,75; 10,05</t>
+          <t>4,73; 10,2</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>2,46; 6,19</t>
+          <t>2,42; 6,46</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>1,64; 4,03</t>
+          <t>1,7; 3,97</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>4,22; 7,6</t>
+          <t>4,33; 7,66</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>3,37; 6,23</t>
+          <t>3,19; 6,3</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>3,06; 6,38</t>
+          <t>3,0; 6,28</t>
         </is>
       </c>
     </row>
@@ -1284,69 +1285,69 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2,24; 7,77</t>
+          <t>2,24; 7,96</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,26; 5,89</t>
+          <t>1,02; 6,0</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>2,86; 9,13</t>
+          <t>2,85; 9,09</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,3; 3,1</t>
+          <t>0,38; 3,23</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>7,79; 16,82</t>
+          <t>7,43; 16,58</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>10,79; 20,55</t>
+          <t>10,71; 20,71</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>5,86; 13,74</t>
+          <t>5,82; 13,78</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>3,51; 7,38</t>
+          <t>3,63; 7,48</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>5,53; 10,93</t>
+          <t>5,7; 10,77</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>6,66; 12,14</t>
+          <t>6,71; 12,52</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>5,09; 9,91</t>
+          <t>5,12; 9,9</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>2,41; 4,69</t>
+          <t>2,3; 4,64</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1424,69 +1425,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,66</t>
+          <t>0,0; 2,46</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>1,87; 6,73</t>
+          <t>1,88; 6,91</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,3; 2,95</t>
+          <t>0,3; 3,08</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>3,09; 7,73</t>
+          <t>3,06; 7,68</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>1,51; 6,12</t>
+          <t>1,47; 5,83</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>5,77; 12,36</t>
+          <t>5,66; 12,14</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>5,37; 12,29</t>
+          <t>5,48; 12,68</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>4,36; 8,66</t>
+          <t>4,42; 8,59</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>1,08; 3,3</t>
+          <t>1,09; 3,32</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>4,47; 8,63</t>
+          <t>4,37; 8,43</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>3,19; 6,84</t>
+          <t>3,27; 7,03</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>4,23; 7,23</t>
+          <t>4,11; 7,3</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>1,07; 3,16</t>
+          <t>1,04; 3,21</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>2,79; 6,18</t>
+          <t>2,81; 6,2</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,67; 2,91</t>
+          <t>0,66; 2,88</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>2,99; 6,18</t>
+          <t>2,99; 6,28</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>5,42; 9,73</t>
+          <t>5,61; 10,05</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>5,49; 9,63</t>
+          <t>5,5; 9,55</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>3,76; 7,55</t>
+          <t>3,6; 7,29</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>3,04; 10,25</t>
+          <t>3,64; 10,04</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>3,7; 6,1</t>
+          <t>3,73; 6,07</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>4,54; 7,45</t>
+          <t>4,66; 7,29</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>2,57; 4,69</t>
+          <t>2,43; 4,56</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>3,56; 7,54</t>
+          <t>3,79; 7,52</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1705,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>2,75; 5,71</t>
+          <t>2,74; 5,86</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>1,64; 4,21</t>
+          <t>1,65; 4,24</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>2,24; 4,65</t>
+          <t>2,23; 4,9</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>0,51; 2,34</t>
+          <t>0,46; 2,23</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>5,35; 9,27</t>
+          <t>5,36; 9,18</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>5,04; 8,4</t>
+          <t>5,04; 8,37</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>6,9; 11,18</t>
+          <t>6,75; 10,87</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>6,33; 9,69</t>
+          <t>6,42; 9,61</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>4,43; 6,91</t>
+          <t>4,42; 6,94</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>3,62; 5,91</t>
+          <t>3,71; 6,0</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>4,92; 7,44</t>
+          <t>4,91; 7,35</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>2,5; 5,39</t>
+          <t>2,62; 5,37</t>
         </is>
       </c>
     </row>
@@ -1844,62 +1845,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>1,68; 2,68</t>
+          <t>1,68; 2,62</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>2,52; 3,91</t>
+          <t>2,53; 3,91</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>1,72; 2,77</t>
+          <t>1,7; 2,69</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>2,44; 3,91</t>
+          <t>2,45; 3,92</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>5,64; 7,33</t>
+          <t>5,63; 7,3</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>7,41; 9,44</t>
+          <t>7,41; 9,26</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>6,29; 8,08</t>
+          <t>6,29; 8,0</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>5,75; 8,0</t>
+          <t>5,76; 7,97</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>3,86; 4,86</t>
+          <t>3,84; 4,81</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>5,21; 6,38</t>
+          <t>5,28; 6,44</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>4,25; 5,28</t>
+          <t>4,19; 5,23</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>4,55; 5,83</t>
+          <t>4,53; 5,82</t>
         </is>
       </c>
     </row>
@@ -1928,4 +1929,2048 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que ha consumido antidepresivos en las dos últimas semanas</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Almería</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>6559</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>10881</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>8194</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>4679</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>21379</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>21101</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>24668</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>13356</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>27938</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>31982</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>32862</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>18035</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>2738; 13053</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>5733; 19499</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>3775; 15830</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>1670; 10714</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>13550; 31527</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>13399; 33219</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>16558; 35490</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>8957; 18909</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>18706; 39012</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>22328; 44960</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>22659; 46262</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>12440; 25711</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Cádiz</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>3952</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>12523</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>7458</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>19270</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>29540</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>42784</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>33466</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>50388</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>33492</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>55307</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>40924</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>69658</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>995; 9029</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>6147; 26342</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>3158; 14818</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>11385; 31687</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>19728; 40519</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>31016; 56506</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>23325; 46554</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>39166; 62174</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>24130; 48382</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>40219; 73259</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>29589; 56444</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>56718; 85567</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Córdoba</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>3769</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>12955</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>2248</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>16769</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>15209</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>30737</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>14074</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>33726</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>18978</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>43692</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>16322</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>50495</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>1019; 10750</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>6899; 22311</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0; 6875</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>10638; 25796</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>8937; 24538</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>21389; 42694</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>7880; 24191</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>25309; 43013</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>11916; 30098</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>32741; 60046</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>9614; 26145</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>40086; 62189</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>2862</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>5251</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>6859</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>14652</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>16682</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>39444</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>27370</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>20735</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>19544</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>44695</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>34229</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>35387</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>849; 7766</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>2036; 11535</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>2894; 13664</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>7749; 26519</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>10046; 25407</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>29517; 52056</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>18304; 39506</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>11483; 30722</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>12435; 28958</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>32958; 58340</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>24124; 47714</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>23670; 49507</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Huelva</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>9001</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>6277</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>11715</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>2252</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>23693</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>33539</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>19960</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>10822</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>32695</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>39816</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>31675</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>13074</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>4547; 16178</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>2175; 12758</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>6015; 19207</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>675; 5767</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>15422; 34433</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>23522; 45474</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>12714; 30130</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>7581; 15603</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>23444; 44257</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>29016; 54114</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>22023; 42530</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>8903; 17978</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Jaén</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>2062</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>10100</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>2767</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>13494</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>9005</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>24477</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>23199</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>16101</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>11067</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>34577</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>25966</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>29596</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>0; 6650</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>5155; 18943</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>794; 8103</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>8251; 20701</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>4082; 16213</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>15787; 33883</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>14972; 34623</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>11356; 22069</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>5995; 18245</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>24187; 46655</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>17558; 37722</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>21655; 38448</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Málaga</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>126</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>11992</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>28716</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>9534</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>27614</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>47591</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>50177</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>36867</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>60795</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>59583</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>78893</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>46400</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>88409</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>6396; 19765</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>18595; 41124</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>4319; 18908</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>18689; 39209</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>35780; 64119</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>38105; 66177</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>24856; 50371</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>30955; 85283</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>46760; 76124</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>63215; 98802</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>32744; 61426</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>55893; 110825</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>109</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>29902</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>21130</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>25432</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>13025</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>55081</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>54346</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>72088</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>56273</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>84983</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>75476</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>97520</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>69299</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>20346; 43534</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>12783; 32960</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>17369; 38135</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>4307; 20756</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>42018; 71955</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>41374; 68764</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>55782; 89837</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>45893; 68664</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>67403; 105862</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>59379; 95867</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>78821; 117912</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>43069; 88311</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>129</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>281</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>227</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>451</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>282</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>376</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>300</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>580</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>70100</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>107832</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>74207</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>111757</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>218181</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>296605</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>251691</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>262196</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>288281</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>404437</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>325898</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>373953</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>55089; 85755</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>86572; 133555</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>57849; 91412</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>84745; 135474</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>190280; 246748</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>262752; 328478</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>223043; 283410</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>210501; 291456</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>255230; 320257</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>367529; 448340</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>290464; 362774</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>322144; 414280</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>